--- a/data/hotels_by_city/Dallas/Dallas_shard_622.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_622.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,435 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r574825965-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>56854</t>
+  </si>
+  <si>
+    <t>223657</t>
+  </si>
+  <si>
+    <t>574825965</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Clean comfy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean comfortable room on the cheap side. Breakfast is what one would expect. Parking lot is a little tight. Texans like their trucks. Clean bathrooms and showers. Spacious rooms and friendly staff. Highway noise is a minus but what are you going to do esp if you need to get to 200. </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r541486946-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>541486946</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>First Impressions Are Usually Best</t>
+  </si>
+  <si>
+    <t>Our first clue to disorganization was the fact that the elevator was not working.  Apparently the repairman had been working on it for quite sometime when we arrived.  Since our rooms were on the second floor, we had to walk up the stairs.  We were in connecting rooms with our traveling companions.  The bed in their room had not been made up, although it had been cleaned.The staff was very friendly and accommodating, but the experience was less than stellar.  We probably will not return.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r532921097-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>532921097</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>Nice and Clean</t>
+  </si>
+  <si>
+    <t>Stayed 1 night in a suite. Staff is very friendly and professional. Room was clean and comfortable. Lots of food choices within a couple minutes drive with Steak n Shake next door.. Would recommend.Plenty of parking.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r488585615-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>488585615</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do NOT stay here.  </t>
+  </si>
+  <si>
+    <t>Ask for a downstairs room unless they had an elevator.  They put us on the second floor with the elevator on the other side of the hotel.  The room keys did not work.  Went across the hotel, back halfway to the lobby.  Re-activated keys.  Went back upstairs.  Keys did not works. Back across hotel, down elevator, back to center of hotel lobby.  Told them to fix the keys. One went upstairs.  Asked other woman if she could bring me some water.  She huffed as she walked in her jeans ripped with holes.  Not stressed designer jeans, raggedy torn Jeans.  More professional of two women says the problem is in the lock so they made us an emergency key to use???  But finally in the room.  Called to have someone help me walk back to the room.  More professional woman offered a office chair to roll me back to room.  Finally In room.  TV has no sound.  Room hot, air blowing up in curtain.  Finally get curtains pushed into window ledge.  Call desk 3 times about tv.  Coffee pot takes 15 minutes to make the 2 cup capacity.  Room still hot. They are suppose to be bringing a new tv.  I guess it is easier for them to have us wait for them to bring us a new tv than to move us to. Working room or refund the $20 off I offered as a compromise for all the non-working items....Ask for a downstairs room unless they had an elevator.  They put us on the second floor with the elevator on the other side of the hotel.  The room keys did not work.  Went across the hotel, back halfway to the lobby.  Re-activated keys.  Went back upstairs.  Keys did not works. Back across hotel, down elevator, back to center of hotel lobby.  Told them to fix the keys. One went upstairs.  Asked other woman if she could bring me some water.  She huffed as she walked in her jeans ripped with holes.  Not stressed designer jeans, raggedy torn Jeans.  More professional of two women says the problem is in the lock so they made us an emergency key to use???  But finally in the room.  Called to have someone help me walk back to the room.  More professional woman offered a office chair to roll me back to room.  Finally In room.  TV has no sound.  Room hot, air blowing up in curtain.  Finally get curtains pushed into window ledge.  Call desk 3 times about tv.  Coffee pot takes 15 minutes to make the 2 cup capacity.  Room still hot. They are suppose to be bringing a new tv.  I guess it is easier for them to have us wait for them to bring us a new tv than to move us to. Working room or refund the $20 off I offered as a compromise for all the non-working items.  Meanwhile the hotel we stayed in close to here called to see if we had enjoyed our stay with them and to thank us once again.  If you come to Weatherford TX and need a hotel go to the Weatherford INN and Suits.  Don't know what possessed me to pay more for a horrible room.  This hotel is next to the hotel where our friends are staying.  I will gladly drive across town next time.  The manager here did bring the tv herself.  Trust me, Weatherford ain't and suites is much cheaper  and much nicer. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ask for a downstairs room unless they had an elevator.  They put us on the second floor with the elevator on the other side of the hotel.  The room keys did not work.  Went across the hotel, back halfway to the lobby.  Re-activated keys.  Went back upstairs.  Keys did not works. Back across hotel, down elevator, back to center of hotel lobby.  Told them to fix the keys. One went upstairs.  Asked other woman if she could bring me some water.  She huffed as she walked in her jeans ripped with holes.  Not stressed designer jeans, raggedy torn Jeans.  More professional of two women says the problem is in the lock so they made us an emergency key to use???  But finally in the room.  Called to have someone help me walk back to the room.  More professional woman offered a office chair to roll me back to room.  Finally In room.  TV has no sound.  Room hot, air blowing up in curtain.  Finally get curtains pushed into window ledge.  Call desk 3 times about tv.  Coffee pot takes 15 minutes to make the 2 cup capacity.  Room still hot. They are suppose to be bringing a new tv.  I guess it is easier for them to have us wait for them to bring us a new tv than to move us to. Working room or refund the $20 off I offered as a compromise for all the non-working items....Ask for a downstairs room unless they had an elevator.  They put us on the second floor with the elevator on the other side of the hotel.  The room keys did not work.  Went across the hotel, back halfway to the lobby.  Re-activated keys.  Went back upstairs.  Keys did not works. Back across hotel, down elevator, back to center of hotel lobby.  Told them to fix the keys. One went upstairs.  Asked other woman if she could bring me some water.  She huffed as she walked in her jeans ripped with holes.  Not stressed designer jeans, raggedy torn Jeans.  More professional of two women says the problem is in the lock so they made us an emergency key to use???  But finally in the room.  Called to have someone help me walk back to the room.  More professional woman offered a office chair to roll me back to room.  Finally In room.  TV has no sound.  Room hot, air blowing up in curtain.  Finally get curtains pushed into window ledge.  Call desk 3 times about tv.  Coffee pot takes 15 minutes to make the 2 cup capacity.  Room still hot. They are suppose to be bringing a new tv.  I guess it is easier for them to have us wait for them to bring us a new tv than to move us to. Working room or refund the $20 off I offered as a compromise for all the non-working items.  Meanwhile the hotel we stayed in close to here called to see if we had enjoyed our stay with them and to thank us once again.  If you come to Weatherford TX and need a hotel go to the Weatherford INN and Suits.  Don't know what possessed me to pay more for a horrible room.  This hotel is next to the hotel where our friends are staying.  I will gladly drive across town next time.  The manager here did bring the tv herself.  Trust me, Weatherford ain't and suites is much cheaper  and much nicer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r488493803-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>488493803</t>
+  </si>
+  <si>
+    <t>Graduation day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stay two nights and we were very pleased with our stay. Our room was very nice and it was clean. Everything in the room worked and was in order. The hot breakfast was excellent, from omelettes to scrambled eggs and sausage. The nights were very quiet even though the motel was full. I would stay there again. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r475060602-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>475060602</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Excellent Staff and Service</t>
+  </si>
+  <si>
+    <t>Excellent Staff and Service! We had trouble adding our stay to the bonus program. Front desk did it all for us, no problem. Highly recommend your next stay in the area be with Quality Inn and Suites @ Weatherford. We stay on race day for the convenience at Texas Motor Speedway. 30 minutes from everywhere!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r440129369-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>440129369</t>
+  </si>
+  <si>
+    <t>11/26/2016</t>
+  </si>
+  <si>
+    <t>Booked on priceline</t>
+  </si>
+  <si>
+    <t>I did an express Deal on Priceline  for a 2.5 star hotel .. this motel is 1.5 at best, very disappointed  arrived after 7 hr trip and was informed they only had a smoking room available... some smoking rooms in other hotels have been treated to remove cigarette smell this was not one of them..   the motel needs a lot of work to be a 2.5 star</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r408468667-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>408468667</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Did not honor my reservation</t>
+  </si>
+  <si>
+    <t>I had a confirmed reservation for a handicapped suite which I made on 6/1/16 for arrival 8/8/16 .  When I called 3 days prior to arrival, I was told there was a family in that suite and I could have either a handicapped room or a non handicapped suite.  If I had not called, presume I would have been advised upon arrival that my reservation would not be honored.  The handicapped room we were given was sub-par - regular height bathtub which a handicapped person could NOT get into unassisted, bathroom door wouldn't stay closed and banged against the chair, mattresses sagged and were very uncomfortable, no coffee cups at breakfast and the coffee was cold, broken down truck without handicapped plates or placard in the only handicapped spot by the room, poor customer service, etc.  We have stayed at this hotel for several years when visiting family in the area, but apparently ownership has changed and the quality has deteriorated.  They've lost our business and I would not recommend this hotel when there are other options available.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a confirmed reservation for a handicapped suite which I made on 6/1/16 for arrival 8/8/16 .  When I called 3 days prior to arrival, I was told there was a family in that suite and I could have either a handicapped room or a non handicapped suite.  If I had not called, presume I would have been advised upon arrival that my reservation would not be honored.  The handicapped room we were given was sub-par - regular height bathtub which a handicapped person could NOT get into unassisted, bathroom door wouldn't stay closed and banged against the chair, mattresses sagged and were very uncomfortable, no coffee cups at breakfast and the coffee was cold, broken down truck without handicapped plates or placard in the only handicapped spot by the room, poor customer service, etc.  We have stayed at this hotel for several years when visiting family in the area, but apparently ownership has changed and the quality has deteriorated.  They've lost our business and I would not recommend this hotel when there are other options available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r400769398-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>400769398</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Family Vacation gone wrong!</t>
+  </si>
+  <si>
+    <t>We were headed to Fort Worth for our family Vacation well right before we got to Weatherford we had a blow out. I had to get my car towed to the nearest tire shop it was late so we had to get a room for the night &amp; the Quality Inn was the closest place, they went above &amp; beyond for my family!!! The front desk lady Maria helped us out incredibly anything we asked for she had, she treated us like family! The room was clean &amp; great &amp; it was a great experience! I would definitely stay here again!!!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r302517465-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>302517465</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Our home away from home</t>
+  </si>
+  <si>
+    <t>The staff was extremely helpful. We booked our room via Expedia, who total messed up, and did not reserve our room. But Joanna at the front desk was able to get everthing straightened out for us. The room were clean. Beds very comfortable. This will be our "go to" when we visit our daughter at college.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r294648508-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>294648508</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Average hotel, poor service</t>
+  </si>
+  <si>
+    <t>I'll start with the positive. The room was adequate. Both the room and bathroom was clean. Rooms have a microwave and mini fridge The cons: check-in...Yikes. It took about 20 minutes. I had prepaid when I booked online, so I thought it would be easier. No directions on how to find our room. Once I figured out I was in a motel, I had to drive all the way around the building before I found it. It is a motel, so noise from I 20 is an issue. Rooms not well insulated. Notes: Breakfast is 6-9 even on SaturdayThis is a true motel: rooms are entered from the parking lot. It is difficult to find options for nonsmoking rooms online. Don't do like me and assume they are all nonsmoking! Request at check-in!MoreShow less</t>
+  </si>
+  <si>
+    <t>I'll start with the positive. The room was adequate. Both the room and bathroom was clean. Rooms have a microwave and mini fridge The cons: check-in...Yikes. It took about 20 minutes. I had prepaid when I booked online, so I thought it would be easier. No directions on how to find our room. Once I figured out I was in a motel, I had to drive all the way around the building before I found it. It is a motel, so noise from I 20 is an issue. Rooms not well insulated. Notes: Breakfast is 6-9 even on SaturdayThis is a true motel: rooms are entered from the parking lot. It is difficult to find options for nonsmoking rooms online. Don't do like me and assume they are all nonsmoking! Request at check-in!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r288036826-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>288036826</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>Way better than I expected</t>
+  </si>
+  <si>
+    <t>Spent one night at this hotel, we were in town for the Parker County peach festival. Staff at the front desk was extremely helpful, suite room was very nice very clean bed was comfortable, I cannot complain about a thing concerning the room. The next morning the breakfast was rather sparse, but that was probably our fault because we did not get down there until almost 9 o'clock and the place had been full due to the big events in town. It sort of looked like a herd of locusts had been through there. Because of these circumstances I would not hold that against this hotel. I would definitely recommend this place and I would definitely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Spent one night at this hotel, we were in town for the Parker County peach festival. Staff at the front desk was extremely helpful, suite room was very nice very clean bed was comfortable, I cannot complain about a thing concerning the room. The next morning the breakfast was rather sparse, but that was probably our fault because we did not get down there until almost 9 o'clock and the place had been full due to the big events in town. It sort of looked like a herd of locusts had been through there. Because of these circumstances I would not hold that against this hotel. I would definitely recommend this place and I would definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r240064263-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>240064263</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Staff </t>
+  </si>
+  <si>
+    <t>It's what you come to expect from quality clean spaces , no bugs anywhere as seen in other reviews, hot breakfast ie bacon, eggs, waffles etc, clean common areas. Huge plus was nice friendly staff. Would use again. Cons the wifi doesn't work at all so your using data from phone plan and outside door to enter hallway consistently didn't work:(MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>mwbabyangel_08, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>It's what you come to expect from quality clean spaces , no bugs anywhere as seen in other reviews, hot breakfast ie bacon, eggs, waffles etc, clean common areas. Huge plus was nice friendly staff. Would use again. Cons the wifi doesn't work at all so your using data from phone plan and outside door to enter hallway consistently didn't work:(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r211556031-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>211556031</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Awesome staff!</t>
+  </si>
+  <si>
+    <t>We blew a tire about 15 miles from Weatherford. We put on the donut and hobbled along to find a hotel. We pulled in at Quality and the clerk was VERY compassionate and helpful. She managed to find us a suite for 6 on the first floor since the elevator was broken. Getting in and out of the hotel is a little weird due to one-way roads, but they are VERY close to all kinds of eating, a Walmart, and best of all for us: a Discount Tire! The clerk even kept the pool open after hours to accommodate our children since we arrived so late.  This was, by far, one of the BEST hotel experiences we've had. The room was comfy for six people. If I could give service a 10, I'd do it in a heartbeat!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>mwbabyangel_08, Manager at Quality Inn &amp; Suites, responded to this reviewResponded June 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2014</t>
+  </si>
+  <si>
+    <t>We blew a tire about 15 miles from Weatherford. We put on the donut and hobbled along to find a hotel. We pulled in at Quality and the clerk was VERY compassionate and helpful. She managed to find us a suite for 6 on the first floor since the elevator was broken. Getting in and out of the hotel is a little weird due to one-way roads, but they are VERY close to all kinds of eating, a Walmart, and best of all for us: a Discount Tire! The clerk even kept the pool open after hours to accommodate our children since we arrived so late.  This was, by far, one of the BEST hotel experiences we've had. The room was comfy for six people. If I could give service a 10, I'd do it in a heartbeat!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r166424331-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>166424331</t>
+  </si>
+  <si>
+    <t>07/05/2013</t>
+  </si>
+  <si>
+    <t>Never stay there again</t>
+  </si>
+  <si>
+    <t>I made reservation online to stay there while we were driving through.  I had asked for a non-smoking and the room said it was but smelled of smoke.  So they moved us to another room that had visable bedbugs on the white sheets. Last room they moved us to didn't have working AC.  So we checked out and went across the street. The lobby was dark at 8:00pm and not very inviting.  I was scared to go in.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>mwbabyangel_08, Manager at Quality Inn &amp; Suites, responded to this reviewResponded October 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2014</t>
+  </si>
+  <si>
+    <t>I made reservation online to stay there while we were driving through.  I had asked for a non-smoking and the room said it was but smelled of smoke.  So they moved us to another room that had visable bedbugs on the white sheets. Last room they moved us to didn't have working AC.  So we checked out and went across the street. The lobby was dark at 8:00pm and not very inviting.  I was scared to go in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r162665765-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>162665765</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>Decent, but misleading.</t>
+  </si>
+  <si>
+    <t>One of the main reasons we chose to stay at this hotel was because the website (through Expedia) said that "dining options at the hotel include a restaurant" and "room service" was listed as one of the amenities.  Upon arrival, however, we discovered that there is NOT a restaurant at the hotel.  There are many restaurants very nearby the hotel, but none onsite, as described.  Other than that, this hotel was decent and clean, although the maid service was terrible with cleaning products left in our room, no new coffee cups for coffee the next day, the ironing board not put away after we used it, etc.  They had a great complimentary hot breakfast in the lobby in the mornings, but the information book in the room said they were serving until 9:30 but when we got there shortly after 9am, they were putting things away and stated they stopped at 9:00, not 9:30.  Also, when we went to use the public computer available in the lobby, we were told the printer was not working properly and that we could go next door to a hotel nearby and use their computer.  When we went to that hotel, they were very nice but said it happened "all the time" with Quality Inn's printer and guests having to come to their hotel because of it.  The hotel was also very near the freeway, which was convenient, but very noisy at night.  Although...One of the main reasons we chose to stay at this hotel was because the website (through Expedia) said that "dining options at the hotel include a restaurant" and "room service" was listed as one of the amenities.  Upon arrival, however, we discovered that there is NOT a restaurant at the hotel.  There are many restaurants very nearby the hotel, but none onsite, as described.  Other than that, this hotel was decent and clean, although the maid service was terrible with cleaning products left in our room, no new coffee cups for coffee the next day, the ironing board not put away after we used it, etc.  They had a great complimentary hot breakfast in the lobby in the mornings, but the information book in the room said they were serving until 9:30 but when we got there shortly after 9am, they were putting things away and stated they stopped at 9:00, not 9:30.  Also, when we went to use the public computer available in the lobby, we were told the printer was not working properly and that we could go next door to a hotel nearby and use their computer.  When we went to that hotel, they were very nice but said it happened "all the time" with Quality Inn's printer and guests having to come to their hotel because of it.  The hotel was also very near the freeway, which was convenient, but very noisy at night.  Although a decent hotel, overall, we probably would not book there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>One of the main reasons we chose to stay at this hotel was because the website (through Expedia) said that "dining options at the hotel include a restaurant" and "room service" was listed as one of the amenities.  Upon arrival, however, we discovered that there is NOT a restaurant at the hotel.  There are many restaurants very nearby the hotel, but none onsite, as described.  Other than that, this hotel was decent and clean, although the maid service was terrible with cleaning products left in our room, no new coffee cups for coffee the next day, the ironing board not put away after we used it, etc.  They had a great complimentary hot breakfast in the lobby in the mornings, but the information book in the room said they were serving until 9:30 but when we got there shortly after 9am, they were putting things away and stated they stopped at 9:00, not 9:30.  Also, when we went to use the public computer available in the lobby, we were told the printer was not working properly and that we could go next door to a hotel nearby and use their computer.  When we went to that hotel, they were very nice but said it happened "all the time" with Quality Inn's printer and guests having to come to their hotel because of it.  The hotel was also very near the freeway, which was convenient, but very noisy at night.  Although...One of the main reasons we chose to stay at this hotel was because the website (through Expedia) said that "dining options at the hotel include a restaurant" and "room service" was listed as one of the amenities.  Upon arrival, however, we discovered that there is NOT a restaurant at the hotel.  There are many restaurants very nearby the hotel, but none onsite, as described.  Other than that, this hotel was decent and clean, although the maid service was terrible with cleaning products left in our room, no new coffee cups for coffee the next day, the ironing board not put away after we used it, etc.  They had a great complimentary hot breakfast in the lobby in the mornings, but the information book in the room said they were serving until 9:30 but when we got there shortly after 9am, they were putting things away and stated they stopped at 9:00, not 9:30.  Also, when we went to use the public computer available in the lobby, we were told the printer was not working properly and that we could go next door to a hotel nearby and use their computer.  When we went to that hotel, they were very nice but said it happened "all the time" with Quality Inn's printer and guests having to come to their hotel because of it.  The hotel was also very near the freeway, which was convenient, but very noisy at night.  Although a decent hotel, overall, we probably would not book there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r161145764-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>161145764</t>
+  </si>
+  <si>
+    <t>05/19/2013</t>
+  </si>
+  <si>
+    <t>Thought the quality would be better</t>
+  </si>
+  <si>
+    <t>We called ahead and have credit card info first to Hold room.  Then went we arrived at desk. She wanted card to copy card manually that makes an imprints of the card. Old fashion.  This worried us when she said we file it in the office.  I asked do u shred it she said no.  So we could not sleep well.  The next morning we paid cash and got our implanted info back.  Also We called to get room air conditioning activated and TV.  And then in the am the air conditioner shut off. Muggy day!!   Won't be back</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r158119212-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>158119212</t>
+  </si>
+  <si>
+    <t>04/18/2013</t>
+  </si>
+  <si>
+    <t>Very easy access location</t>
+  </si>
+  <si>
+    <t>Good hot breakfast more healthy nutritious choices exteriors &amp; interior roomsFront desk was friendly smiles  &amp; helpful to our special needsRooms were remodeled Beds were comfortable Roo was clean so was bathtub</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r130702194-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>130702194</t>
+  </si>
+  <si>
+    <t>05/27/2012</t>
+  </si>
+  <si>
+    <t>A Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>We arrived very late at night and I was pleasantly surprised. Clean, neat, had nice bed linens, firm bed. Didn't expect the hot tub bath in a double bed room. The front desk clerk was friendly.They had a different breakfast each day from the menu. It is a very good value for the price.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r73515926-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>73515926</t>
+  </si>
+  <si>
+    <t>08/02/2010</t>
+  </si>
+  <si>
+    <t>very nice and spatious</t>
+  </si>
+  <si>
+    <t>stayed here one night for the peach festival. The location isn't that great, should have picked a place on the other side of the highway, as the construction slowed down traffic on our side. The king suite was very nice and spatious. The fridge is just a small dorm style one with a small freezer section. Cinnamon rolls HI Express is famous for are here! The breakfast area seeting area is small and gets crowded. I didn't like that one of the tables was so high(bar height) that our baby's highchair didn't reach and I had to hold her to feed her. The breakfast area was not designed very well at all. May or may not stay here again, we like to try out different hotels. I think we'll try the La Quinta next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>stayed here one night for the peach festival. The location isn't that great, should have picked a place on the other side of the highway, as the construction slowed down traffic on our side. The king suite was very nice and spatious. The fridge is just a small dorm style one with a small freezer section. Cinnamon rolls HI Express is famous for are here! The breakfast area seeting area is small and gets crowded. I didn't like that one of the tables was so high(bar height) that our baby's highchair didn't reach and I had to hold her to feed her. The breakfast area was not designed very well at all. May or may not stay here again, we like to try out different hotels. I think we'll try the La Quinta next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r47522938-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>47522938</t>
+  </si>
+  <si>
+    <t>10/22/2009</t>
+  </si>
+  <si>
+    <t>Honest, helpful and very efficient.</t>
+  </si>
+  <si>
+    <t>I was helping my daughter move from Ca. to Tenn. and spent one night here.  Everything was great, especially the continental breakfast!  They would have received wonderful reviews even if that would have been my only contact with them - HOWEVER - upon arriving at my destination I discovered my camera missing.  Thinking back to the last time I'd used it, I realized I must have left it on the back of the trailer as we were securing everything before taking off the next morning.  I told my wife we'd just have to write it off as a lost.  She contacted Holiday Inn anyway, and was told a camera/case had been found in the parking lot.  It was mailed immediately!  We've had dealings with other hotels over other issues and they couldn't be bothered.  It is so refreshing to find honest people hired by a company that has integrity.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>I was helping my daughter move from Ca. to Tenn. and spent one night here.  Everything was great, especially the continental breakfast!  They would have received wonderful reviews even if that would have been my only contact with them - HOWEVER - upon arriving at my destination I discovered my camera missing.  Thinking back to the last time I'd used it, I realized I must have left it on the back of the trailer as we were securing everything before taking off the next morning.  I told my wife we'd just have to write it off as a lost.  She contacted Holiday Inn anyway, and was told a camera/case had been found in the parking lot.  It was mailed immediately!  We've had dealings with other hotels over other issues and they couldn't be bothered.  It is so refreshing to find honest people hired by a company that has integrity.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1074,1297 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>146</v>
+      </c>
+      <c r="X16" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" t="s">
+        <v>84</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>177</v>
+      </c>
+      <c r="O21" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_622.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_622.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>cmiked</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Reta C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r541486946-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Mrose711</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r532921097-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Ladybug T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r488585615-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>Ask for a downstairs room unless they had an elevator.  They put us on the second floor with the elevator on the other side of the hotel.  The room keys did not work.  Went across the hotel, back halfway to the lobby.  Re-activated keys.  Went back upstairs.  Keys did not works. Back across hotel, down elevator, back to center of hotel lobby.  Told them to fix the keys. One went upstairs.  Asked other woman if she could bring me some water.  She huffed as she walked in her jeans ripped with holes.  Not stressed designer jeans, raggedy torn Jeans.  More professional of two women says the problem is in the lock so they made us an emergency key to use???  But finally in the room.  Called to have someone help me walk back to the room.  More professional woman offered a office chair to roll me back to room.  Finally In room.  TV has no sound.  Room hot, air blowing up in curtain.  Finally get curtains pushed into window ledge.  Call desk 3 times about tv.  Coffee pot takes 15 minutes to make the 2 cup capacity.  Room still hot. They are suppose to be bringing a new tv.  I guess it is easier for them to have us wait for them to bring us a new tv than to move us to. Working room or refund the $20 off I offered as a compromise for all the non-working items....Ask for a downstairs room unless they had an elevator.  They put us on the second floor with the elevator on the other side of the hotel.  The room keys did not work.  Went across the hotel, back halfway to the lobby.  Re-activated keys.  Went back upstairs.  Keys did not works. Back across hotel, down elevator, back to center of hotel lobby.  Told them to fix the keys. One went upstairs.  Asked other woman if she could bring me some water.  She huffed as she walked in her jeans ripped with holes.  Not stressed designer jeans, raggedy torn Jeans.  More professional of two women says the problem is in the lock so they made us an emergency key to use???  But finally in the room.  Called to have someone help me walk back to the room.  More professional woman offered a office chair to roll me back to room.  Finally In room.  TV has no sound.  Room hot, air blowing up in curtain.  Finally get curtains pushed into window ledge.  Call desk 3 times about tv.  Coffee pot takes 15 minutes to make the 2 cup capacity.  Room still hot. They are suppose to be bringing a new tv.  I guess it is easier for them to have us wait for them to bring us a new tv than to move us to. Working room or refund the $20 off I offered as a compromise for all the non-working items.  Meanwhile the hotel we stayed in close to here called to see if we had enjoyed our stay with them and to thank us once again.  If you come to Weatherford TX and need a hotel go to the Weatherford INN and Suits.  Don't know what possessed me to pay more for a horrible room.  This hotel is next to the hotel where our friends are staying.  I will gladly drive across town next time.  The manager here did bring the tv herself.  Trust me, Weatherford ain't and suites is much cheaper  and much nicer. More</t>
   </si>
   <si>
+    <t>tracker88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r488493803-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>AlbertRichardson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r475060602-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Randall H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r440129369-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>barbaraj5088</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r408468667-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>I had a confirmed reservation for a handicapped suite which I made on 6/1/16 for arrival 8/8/16 .  When I called 3 days prior to arrival, I was told there was a family in that suite and I could have either a handicapped room or a non handicapped suite.  If I had not called, presume I would have been advised upon arrival that my reservation would not be honored.  The handicapped room we were given was sub-par - regular height bathtub which a handicapped person could NOT get into unassisted, bathroom door wouldn't stay closed and banged against the chair, mattresses sagged and were very uncomfortable, no coffee cups at breakfast and the coffee was cold, broken down truck without handicapped plates or placard in the only handicapped spot by the room, poor customer service, etc.  We have stayed at this hotel for several years when visiting family in the area, but apparently ownership has changed and the quality has deteriorated.  They've lost our business and I would not recommend this hotel when there are other options available.More</t>
   </si>
   <si>
+    <t>Brittany G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r400769398-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -327,6 +354,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Georgie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r302517465-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -345,6 +375,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>LoriABil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r294648508-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -363,6 +396,9 @@
     <t>I'll start with the positive. The room was adequate. Both the room and bathroom was clean. Rooms have a microwave and mini fridge The cons: check-in...Yikes. It took about 20 minutes. I had prepaid when I booked online, so I thought it would be easier. No directions on how to find our room. Once I figured out I was in a motel, I had to drive all the way around the building before I found it. It is a motel, so noise from I 20 is an issue. Rooms not well insulated. Notes: Breakfast is 6-9 even on SaturdayThis is a true motel: rooms are entered from the parking lot. It is difficult to find options for nonsmoking rooms online. Don't do like me and assume they are all nonsmoking! Request at check-in!More</t>
   </si>
   <si>
+    <t>Tim-from-Texas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r288036826-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -384,6 +420,9 @@
     <t>Spent one night at this hotel, we were in town for the Parker County peach festival. Staff at the front desk was extremely helpful, suite room was very nice very clean bed was comfortable, I cannot complain about a thing concerning the room. The next morning the breakfast was rather sparse, but that was probably our fault because we did not get down there until almost 9 o'clock and the place had been full due to the big events in town. It sort of looked like a herd of locusts had been through there. Because of these circumstances I would not hold that against this hotel. I would definitely recommend this place and I would definitely stay here againMore</t>
   </si>
   <si>
+    <t>CLTLRT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r240064263-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -411,6 +450,9 @@
     <t>It's what you come to expect from quality clean spaces , no bugs anywhere as seen in other reviews, hot breakfast ie bacon, eggs, waffles etc, clean common areas. Huge plus was nice friendly staff. Would use again. Cons the wifi doesn't work at all so your using data from phone plan and outside door to enter hallway consistently didn't work:(More</t>
   </si>
   <si>
+    <t>davidinark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r211556031-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -438,6 +480,9 @@
     <t>We blew a tire about 15 miles from Weatherford. We put on the donut and hobbled along to find a hotel. We pulled in at Quality and the clerk was VERY compassionate and helpful. She managed to find us a suite for 6 on the first floor since the elevator was broken. Getting in and out of the hotel is a little weird due to one-way roads, but they are VERY close to all kinds of eating, a Walmart, and best of all for us: a Discount Tire! The clerk even kept the pool open after hours to accommodate our children since we arrived so late.  This was, by far, one of the BEST hotel experiences we've had. The room was comfy for six people. If I could give service a 10, I'd do it in a heartbeat!More</t>
   </si>
   <si>
+    <t>Vanessa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r166424331-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -465,6 +510,9 @@
     <t>I made reservation online to stay there while we were driving through.  I had asked for a non-smoking and the room said it was but smelled of smoke.  So they moved us to another room that had visable bedbugs on the white sheets. Last room they moved us to didn't have working AC.  So we checked out and went across the street. The lobby was dark at 8:00pm and not very inviting.  I was scared to go in.More</t>
   </si>
   <si>
+    <t>Wats25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r162665765-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -486,6 +534,9 @@
     <t>One of the main reasons we chose to stay at this hotel was because the website (through Expedia) said that "dining options at the hotel include a restaurant" and "room service" was listed as one of the amenities.  Upon arrival, however, we discovered that there is NOT a restaurant at the hotel.  There are many restaurants very nearby the hotel, but none onsite, as described.  Other than that, this hotel was decent and clean, although the maid service was terrible with cleaning products left in our room, no new coffee cups for coffee the next day, the ironing board not put away after we used it, etc.  They had a great complimentary hot breakfast in the lobby in the mornings, but the information book in the room said they were serving until 9:30 but when we got there shortly after 9am, they were putting things away and stated they stopped at 9:00, not 9:30.  Also, when we went to use the public computer available in the lobby, we were told the printer was not working properly and that we could go next door to a hotel nearby and use their computer.  When we went to that hotel, they were very nice but said it happened "all the time" with Quality Inn's printer and guests having to come to their hotel because of it.  The hotel was also very near the freeway, which was convenient, but very noisy at night.  Although...One of the main reasons we chose to stay at this hotel was because the website (through Expedia) said that "dining options at the hotel include a restaurant" and "room service" was listed as one of the amenities.  Upon arrival, however, we discovered that there is NOT a restaurant at the hotel.  There are many restaurants very nearby the hotel, but none onsite, as described.  Other than that, this hotel was decent and clean, although the maid service was terrible with cleaning products left in our room, no new coffee cups for coffee the next day, the ironing board not put away after we used it, etc.  They had a great complimentary hot breakfast in the lobby in the mornings, but the information book in the room said they were serving until 9:30 but when we got there shortly after 9am, they were putting things away and stated they stopped at 9:00, not 9:30.  Also, when we went to use the public computer available in the lobby, we were told the printer was not working properly and that we could go next door to a hotel nearby and use their computer.  When we went to that hotel, they were very nice but said it happened "all the time" with Quality Inn's printer and guests having to come to their hotel because of it.  The hotel was also very near the freeway, which was convenient, but very noisy at night.  Although a decent hotel, overall, we probably would not book there again.More</t>
   </si>
   <si>
+    <t>Dianabaker60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r161145764-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -501,6 +552,9 @@
     <t>We called ahead and have credit card info first to Hold room.  Then went we arrived at desk. She wanted card to copy card manually that makes an imprints of the card. Old fashion.  This worried us when she said we file it in the office.  I asked do u shred it she said no.  So we could not sleep well.  The next morning we paid cash and got our implanted info back.  Also We called to get room air conditioning activated and TV.  And then in the am the air conditioner shut off. Muggy day!!   Won't be back</t>
   </si>
   <si>
+    <t>HIE_Weatherford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r158119212-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -516,6 +570,9 @@
     <t>Good hot breakfast more healthy nutritious choices exteriors &amp; interior roomsFront desk was friendly smiles  &amp; helpful to our special needsRooms were remodeled Beds were comfortable Roo was clean so was bathtub</t>
   </si>
   <si>
+    <t>Kathleen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r130702194-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -534,6 +591,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>4jolly_ranchers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r73515926-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -553,6 +613,9 @@
   </si>
   <si>
     <t>stayed here one night for the peach festival. The location isn't that great, should have picked a place on the other side of the highway, as the construction slowed down traffic on our side. The king suite was very nice and spatious. The fridge is just a small dorm style one with a small freezer section. Cinnamon rolls HI Express is famous for are here! The breakfast area seeting area is small and gets crowded. I didn't like that one of the tables was so high(bar height) that our baby's highchair didn't reach and I had to hold her to feed her. The breakfast area was not designed very well at all. May or may not stay here again, we like to try out different hotels. I think we'll try the La Quinta next year.More</t>
+  </si>
+  <si>
+    <t>AdonaCalifornia</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r47522938-Quality_Inn_Suites-Weatherford_Texas.html</t>
@@ -1078,43 +1141,47 @@
       <c r="A2" t="n">
         <v>14367</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>174064</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1128,50 +1195,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>14367</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>174065</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1191,50 +1262,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>14367</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>174066</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1248,41 +1323,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>14367</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>174067</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -1301,50 +1380,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>14367</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>174068</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
         <v>72</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" t="s">
-        <v>68</v>
-      </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1358,50 +1441,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>14367</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>174069</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1421,50 +1508,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>14367</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>174070</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1484,41 +1575,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>14367</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>174071</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1537,50 +1632,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>14367</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>13241</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1594,50 +1693,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>14367</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>174072</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1651,50 +1754,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>14367</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>174073</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1708,50 +1815,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>14367</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>174074</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1765,50 +1876,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>14367</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>174075</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1820,56 +1935,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14367</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>174076</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1891,56 +2010,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>14367</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>7902</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -1962,56 +2085,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="X16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>14367</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>174077</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2035,41 +2162,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>14367</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>174078</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
@@ -2098,41 +2229,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>14367</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>174079</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -2161,50 +2296,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>14367</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>4161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2228,50 +2367,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>14367</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>174080</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -2295,50 +2438,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>14367</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>174081</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2362,7 +2509,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_622.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_622.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,126 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>cmiked</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r609550591-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>56854</t>
+  </si>
+  <si>
+    <t>223657</t>
+  </si>
+  <si>
+    <t>609550591</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>My elderly dad and stepmother stayed here over the weekend. My stepmother ended up falling on the last morning and the night manager, Jalea, was wonderful to help her and call 911 and stay with her until help arrived. Later, my dad realized that he had lost his college ring while there. I contacted the front desk and they found and returned it to us. We are so grateful for the great personal attention received!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r601303935-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>601303935</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Family reunion</t>
+  </si>
+  <si>
+    <t>Bed was a bit soft for me, but adequate.  WIFI was terrible.  I could not stay connected for more than a few minutes.  I had to login in every few minutes. Very annoying. Fairly quiet with the air conditioner masking most of the noise.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r599398060-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>599398060</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Fantastic Service!</t>
+  </si>
+  <si>
+    <t>We had a great experience staying at this hotel! Night before last, we arrived back late after a wedding we attended and our key wasn't working for some reason. The lady (I didn't get her name) ran a new key up to us quickly. She was so sweet and we were so grateful to not have to go all the way down there to get a new key bc we were so tired. Fantastic experience! We'll definitely recommend it to others and return to stay there again if we come back to that area. Also, the breakfast is wonderful!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>andrew p, Guest Relations Manager at Quality Inn &amp; Suites, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We had a great experience staying at this hotel! Night before last, we arrived back late after a wedding we attended and our key wasn't working for some reason. The lady (I didn't get her name) ran a new key up to us quickly. She was so sweet and we were so grateful to not have to go all the way down there to get a new key bc we were so tired. Fantastic experience! We'll definitely recommend it to others and return to stay there again if we come back to that area. Also, the breakfast is wonderful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r586818870-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>586818870</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run down,  filthy,  not quality! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stopped for the night to have a place to lay our heads down...thats what you get, no extras.  Filthy room. Carpet nasty with stains,  ragged,  burnt holes in it, bed hard as a rock, smells like smoke and non smoking room. Would not recommend. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r584443167-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>584443167</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Clean and Great Staff</t>
+  </si>
+  <si>
+    <t>On a recent business trip, I booked two rooms at Quality Inn &amp; Suites in Weatherford, TX. The rooms were clean and neat. The staff was great, friendly and helpful. They also had a full breakfast. The Inn also had a nice swimming pool.Timothy Glass, Author of Dog Knows Best, Just This Side of Heaven and Postcards</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r574825965-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
-    <t>56854</t>
-  </si>
-  <si>
-    <t>223657</t>
-  </si>
-  <si>
     <t>574825965</t>
   </si>
   <si>
@@ -177,12 +282,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Reta C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r541486946-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -201,12 +300,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Mrose711</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r532921097-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -225,7 +318,40 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t>Ladybug T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r504136473-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>504136473</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Older but reasonable value</t>
+  </si>
+  <si>
+    <t>Pet friendly hotel, with good price is what we were looking for. The hotel hit those points.This was an overnight on cross country trip, the bed was comfortable and the hotel was quiet, even though we were right next to the I-20. Carpets in room was old, Shower was very good, new shower head and water pressure. Breakfast was standard free, mass produced omelets, sausage patties and the typical basic items. Pet deposit was $25.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r490068666-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>490068666</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Improvement needed</t>
+  </si>
+  <si>
+    <t>Nice staff and clean room.Internet connection poor.  Drop outs and unable to connect throughout stay.Morning shower was tepid.  Not something needed on a cold and rainy morning.Breakfast was passable, eggs and burgers were warm, not hot.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r488585615-Quality_Inn_Suites-Weatherford_Texas.html</t>
@@ -246,9 +372,6 @@
     <t>Ask for a downstairs room unless they had an elevator.  They put us on the second floor with the elevator on the other side of the hotel.  The room keys did not work.  Went across the hotel, back halfway to the lobby.  Re-activated keys.  Went back upstairs.  Keys did not works. Back across hotel, down elevator, back to center of hotel lobby.  Told them to fix the keys. One went upstairs.  Asked other woman if she could bring me some water.  She huffed as she walked in her jeans ripped with holes.  Not stressed designer jeans, raggedy torn Jeans.  More professional of two women says the problem is in the lock so they made us an emergency key to use???  But finally in the room.  Called to have someone help me walk back to the room.  More professional woman offered a office chair to roll me back to room.  Finally In room.  TV has no sound.  Room hot, air blowing up in curtain.  Finally get curtains pushed into window ledge.  Call desk 3 times about tv.  Coffee pot takes 15 minutes to make the 2 cup capacity.  Room still hot. They are suppose to be bringing a new tv.  I guess it is easier for them to have us wait for them to bring us a new tv than to move us to. Working room or refund the $20 off I offered as a compromise for all the non-working items....Ask for a downstairs room unless they had an elevator.  They put us on the second floor with the elevator on the other side of the hotel.  The room keys did not work.  Went across the hotel, back halfway to the lobby.  Re-activated keys.  Went back upstairs.  Keys did not works. Back across hotel, down elevator, back to center of hotel lobby.  Told them to fix the keys. One went upstairs.  Asked other woman if she could bring me some water.  She huffed as she walked in her jeans ripped with holes.  Not stressed designer jeans, raggedy torn Jeans.  More professional of two women says the problem is in the lock so they made us an emergency key to use???  But finally in the room.  Called to have someone help me walk back to the room.  More professional woman offered a office chair to roll me back to room.  Finally In room.  TV has no sound.  Room hot, air blowing up in curtain.  Finally get curtains pushed into window ledge.  Call desk 3 times about tv.  Coffee pot takes 15 minutes to make the 2 cup capacity.  Room still hot. They are suppose to be bringing a new tv.  I guess it is easier for them to have us wait for them to bring us a new tv than to move us to. Working room or refund the $20 off I offered as a compromise for all the non-working items.  Meanwhile the hotel we stayed in close to here called to see if we had enjoyed our stay with them and to thank us once again.  If you come to Weatherford TX and need a hotel go to the Weatherford INN and Suits.  Don't know what possessed me to pay more for a horrible room.  This hotel is next to the hotel where our friends are staying.  I will gladly drive across town next time.  The manager here did bring the tv herself.  Trust me, Weatherford ain't and suites is much cheaper  and much nicer. More</t>
   </si>
   <si>
-    <t>tracker88</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r488493803-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -264,12 +387,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>AlbertRichardson</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r475060602-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -288,10 +405,37 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Randall H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r470094848-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>470094848</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Comfortable hotel by I-20 for an overnight stay</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for one night during a long road trip, with the family. Room was very comfortable and breakfast buffet was also very good. Friendly hotel staff. Good variety of restaurants nearby the hotel.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r468180534-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>468180534</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Very clean and neat.  The room was not as large as some other, but it did have a hot tub.  The only down side was the water.  It had an earthy taste.  The hotel seemed to be recently built and in a convenient location.  Wish we had more time to explore the area.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r440129369-Quality_Inn_Suites-Weatherford_Texas.html</t>
@@ -312,9 +456,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>barbaraj5088</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r408468667-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -333,9 +474,6 @@
     <t>I had a confirmed reservation for a handicapped suite which I made on 6/1/16 for arrival 8/8/16 .  When I called 3 days prior to arrival, I was told there was a family in that suite and I could have either a handicapped room or a non handicapped suite.  If I had not called, presume I would have been advised upon arrival that my reservation would not be honored.  The handicapped room we were given was sub-par - regular height bathtub which a handicapped person could NOT get into unassisted, bathroom door wouldn't stay closed and banged against the chair, mattresses sagged and were very uncomfortable, no coffee cups at breakfast and the coffee was cold, broken down truck without handicapped plates or placard in the only handicapped spot by the room, poor customer service, etc.  We have stayed at this hotel for several years when visiting family in the area, but apparently ownership has changed and the quality has deteriorated.  They've lost our business and I would not recommend this hotel when there are other options available.More</t>
   </si>
   <si>
-    <t>Brittany G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r400769398-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -354,7 +492,40 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>Georgie C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r369543044-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>369543044</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is nice for the price! Breakfast was good, they had a little more than the bare minimum which was nice. Every employee I came into contact with was nice and friendly! They offer some interior rooms and exterior rooms, we stayed in two exterior rooms. The room itself was nice and spacious. Clean and well furnished. The water pressure in the shower was very low but the shower head and shower itself have been updated. The wifi was spotty at times, but did the job. Overall I would stay here and recommend this place to others traveling in the area! </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r335114880-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>335114880</t>
+  </si>
+  <si>
+    <t>12/26/2015</t>
+  </si>
+  <si>
+    <t>Just fine!!</t>
+  </si>
+  <si>
+    <t>If you are traveling and need a night of comfort, stay here. While traveling through Texas on a road trip, this hotel was just what I needed. They were also very nice to let us check in a few hours early, which helps when you are exhausted from traveling. The rooms were comfy and the breakfast was fresh and delicious. Perfect for someone passing through. Also, there are PLENTY of restaurants and stores to chose from in the area.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r302517465-Quality_Inn_Suites-Weatherford_Texas.html</t>
@@ -375,9 +546,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t>LoriABil</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r294648508-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -396,9 +564,6 @@
     <t>I'll start with the positive. The room was adequate. Both the room and bathroom was clean. Rooms have a microwave and mini fridge The cons: check-in...Yikes. It took about 20 minutes. I had prepaid when I booked online, so I thought it would be easier. No directions on how to find our room. Once I figured out I was in a motel, I had to drive all the way around the building before I found it. It is a motel, so noise from I 20 is an issue. Rooms not well insulated. Notes: Breakfast is 6-9 even on SaturdayThis is a true motel: rooms are entered from the parking lot. It is difficult to find options for nonsmoking rooms online. Don't do like me and assume they are all nonsmoking! Request at check-in!More</t>
   </si>
   <si>
-    <t>Tim-from-Texas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r288036826-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -420,7 +585,49 @@
     <t>Spent one night at this hotel, we were in town for the Parker County peach festival. Staff at the front desk was extremely helpful, suite room was very nice very clean bed was comfortable, I cannot complain about a thing concerning the room. The next morning the breakfast was rather sparse, but that was probably our fault because we did not get down there until almost 9 o'clock and the place had been full due to the big events in town. It sort of looked like a herd of locusts had been through there. Because of these circumstances I would not hold that against this hotel. I would definitely recommend this place and I would definitely stay here againMore</t>
   </si>
   <si>
-    <t>CLTLRT</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r275814131-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>275814131</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>The front desk clerk was helpful and friendly, and the room looked as though it had been recently redone.  The room was quiet - I never hears any of the other hotel guests - and the bed was firm and very comfortable.  I didn't care for the low shower head or the sprayer, but those were minor iinconveniences.  Unlike other hotels in the area, you have to drive to get to any of the local restaurants.  Breakfast was your normal hotel fare.  Overall I enjoyed the stay and would definitely consider staying here again.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r247929698-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>247929698</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>This was a very nice and clean motel. Enjoyed the convenience and rate of this motel and the cleanliness.  Easy access off and back on main highway. The evening desk clerk was very accommodating and pleasant. We were able to rest easy. Room was comfortable and bed was very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>mwbabyangel_08, General Manager at Quality Inn &amp; Suites, responded to this reviewResponded January 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2015</t>
+  </si>
+  <si>
+    <t>This was a very nice and clean motel. Enjoyed the convenience and rate of this motel and the cleanliness.  Easy access off and back on main highway. The evening desk clerk was very accommodating and pleasant. We were able to rest easy. Room was comfortable and bed was very comfortable.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r240064263-Quality_Inn_Suites-Weatherford_Texas.html</t>
@@ -450,9 +657,6 @@
     <t>It's what you come to expect from quality clean spaces , no bugs anywhere as seen in other reviews, hot breakfast ie bacon, eggs, waffles etc, clean common areas. Huge plus was nice friendly staff. Would use again. Cons the wifi doesn't work at all so your using data from phone plan and outside door to enter hallway consistently didn't work:(More</t>
   </si>
   <si>
-    <t>davidinark</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r211556031-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -480,9 +684,6 @@
     <t>We blew a tire about 15 miles from Weatherford. We put on the donut and hobbled along to find a hotel. We pulled in at Quality and the clerk was VERY compassionate and helpful. She managed to find us a suite for 6 on the first floor since the elevator was broken. Getting in and out of the hotel is a little weird due to one-way roads, but they are VERY close to all kinds of eating, a Walmart, and best of all for us: a Discount Tire! The clerk even kept the pool open after hours to accommodate our children since we arrived so late.  This was, by far, one of the BEST hotel experiences we've had. The room was comfy for six people. If I could give service a 10, I'd do it in a heartbeat!More</t>
   </si>
   <si>
-    <t>Vanessa B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r166424331-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -510,7 +711,37 @@
     <t>I made reservation online to stay there while we were driving through.  I had asked for a non-smoking and the room said it was but smelled of smoke.  So they moved us to another room that had visable bedbugs on the white sheets. Last room they moved us to didn't have working AC.  So we checked out and went across the street. The lobby was dark at 8:00pm and not very inviting.  I was scared to go in.More</t>
   </si>
   <si>
-    <t>Wats25</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r164023217-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>164023217</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>Happily surprised!</t>
+  </si>
+  <si>
+    <t>Ran into a little car trouble late in the day about a week ago and decided to stay here instead of trying to drive home just to be safe. The girl working front desk (who I later found out was the manager) was sympathetic and actually managed to make me laugh and smile even after my veryyy stressful night. She gave me things she knew I'd need but wouldn't have since this wasn't a planned stay (toothbrush, toothpaste, comb, etc.) and I was on my way. The room was immaculately cleaned and nice and cool (which in texas heat is a nice treat) and the beds were honestly the comfiest of any hotel I've stayed in. I was worried it might be noisy because its somewhat close to the highway, but I heard nothing. The breakfast was great, coffee was fresh, and I was even allowed a late check out while I got the whole car situation settled. I don't stay in the area because I live somewhat close, but if I ever do I'll return!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ran into a little car trouble late in the day about a week ago and decided to stay here instead of trying to drive home just to be safe. The girl working front desk (who I later found out was the manager) was sympathetic and actually managed to make me laugh and smile even after my veryyy stressful night. She gave me things she knew I'd need but wouldn't have since this wasn't a planned stay (toothbrush, toothpaste, comb, etc.) and I was on my way. The room was immaculately cleaned and nice and cool (which in texas heat is a nice treat) and the beds were honestly the comfiest of any hotel I've stayed in. I was worried it might be noisy because its somewhat close to the highway, but I heard nothing. The breakfast was great, coffee was fresh, and I was even allowed a late check out while I got the whole car situation settled. I don't stay in the area because I live somewhat close, but if I ever do I'll return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r164000344-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>164000344</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>This hotel was great! They had indoor and outdoor rooms, a pool onsite outside. The rooms were very clean, the staff in office were very friendly. They had a hot breakfast for the kids which was very well and looby was so clean when we checked in and out. I enjoyed this hotels and will for sure be backing back and staying there.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r162665765-Quality_Inn_Suites-Weatherford_Texas.html</t>
@@ -534,9 +765,6 @@
     <t>One of the main reasons we chose to stay at this hotel was because the website (through Expedia) said that "dining options at the hotel include a restaurant" and "room service" was listed as one of the amenities.  Upon arrival, however, we discovered that there is NOT a restaurant at the hotel.  There are many restaurants very nearby the hotel, but none onsite, as described.  Other than that, this hotel was decent and clean, although the maid service was terrible with cleaning products left in our room, no new coffee cups for coffee the next day, the ironing board not put away after we used it, etc.  They had a great complimentary hot breakfast in the lobby in the mornings, but the information book in the room said they were serving until 9:30 but when we got there shortly after 9am, they were putting things away and stated they stopped at 9:00, not 9:30.  Also, when we went to use the public computer available in the lobby, we were told the printer was not working properly and that we could go next door to a hotel nearby and use their computer.  When we went to that hotel, they were very nice but said it happened "all the time" with Quality Inn's printer and guests having to come to their hotel because of it.  The hotel was also very near the freeway, which was convenient, but very noisy at night.  Although...One of the main reasons we chose to stay at this hotel was because the website (through Expedia) said that "dining options at the hotel include a restaurant" and "room service" was listed as one of the amenities.  Upon arrival, however, we discovered that there is NOT a restaurant at the hotel.  There are many restaurants very nearby the hotel, but none onsite, as described.  Other than that, this hotel was decent and clean, although the maid service was terrible with cleaning products left in our room, no new coffee cups for coffee the next day, the ironing board not put away after we used it, etc.  They had a great complimentary hot breakfast in the lobby in the mornings, but the information book in the room said they were serving until 9:30 but when we got there shortly after 9am, they were putting things away and stated they stopped at 9:00, not 9:30.  Also, when we went to use the public computer available in the lobby, we were told the printer was not working properly and that we could go next door to a hotel nearby and use their computer.  When we went to that hotel, they were very nice but said it happened "all the time" with Quality Inn's printer and guests having to come to their hotel because of it.  The hotel was also very near the freeway, which was convenient, but very noisy at night.  Although a decent hotel, overall, we probably would not book there again.More</t>
   </si>
   <si>
-    <t>Dianabaker60</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r161145764-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -552,9 +780,6 @@
     <t>We called ahead and have credit card info first to Hold room.  Then went we arrived at desk. She wanted card to copy card manually that makes an imprints of the card. Old fashion.  This worried us when she said we file it in the office.  I asked do u shred it she said no.  So we could not sleep well.  The next morning we paid cash and got our implanted info back.  Also We called to get room air conditioning activated and TV.  And then in the am the air conditioner shut off. Muggy day!!   Won't be back</t>
   </si>
   <si>
-    <t>HIE_Weatherford</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r158119212-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -570,7 +795,37 @@
     <t>Good hot breakfast more healthy nutritious choices exteriors &amp; interior roomsFront desk was friendly smiles  &amp; helpful to our special needsRooms were remodeled Beds were comfortable Roo was clean so was bathtub</t>
   </si>
   <si>
-    <t>Kathleen S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r137407187-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>137407187</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>Excellant place to stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel while on business and I will have to say that every detail was above my expectations. The front desk lady (Tammy) was very nice and helpful from the moment I walked in until I left. The room was exactly as I envisioned and I had no problems at all. I even received a call from Tammy a little later asking if everything was OK. Can't get service like that at most other hotels. I would highly recommend this hotel to anyone traveling through this area. GREAT JOB !</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r132242264-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>132242264</t>
+  </si>
+  <si>
+    <t>06/18/2012</t>
+  </si>
+  <si>
+    <t>Must stay here!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean! Updated rooms and LARGE bath/shower. Its located very close to Wal-Mart, food and right off the Hwy. We will definately stay there again. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r130702194-Quality_Inn_Suites-Weatherford_Texas.html</t>
@@ -591,9 +846,6 @@
     <t>May 2012</t>
   </si>
   <si>
-    <t>4jolly_ranchers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r73515926-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -615,9 +867,6 @@
     <t>stayed here one night for the peach festival. The location isn't that great, should have picked a place on the other side of the highway, as the construction slowed down traffic on our side. The king suite was very nice and spatious. The fridge is just a small dorm style one with a small freezer section. Cinnamon rolls HI Express is famous for are here! The breakfast area seeting area is small and gets crowded. I didn't like that one of the tables was so high(bar height) that our baby's highchair didn't reach and I had to hold her to feed her. The breakfast area was not designed very well at all. May or may not stay here again, we like to try out different hotels. I think we'll try the La Quinta next year.More</t>
   </si>
   <si>
-    <t>AdonaCalifornia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r47522938-Quality_Inn_Suites-Weatherford_Texas.html</t>
   </si>
   <si>
@@ -637,6 +886,21 @@
   </si>
   <si>
     <t>I was helping my daughter move from Ca. to Tenn. and spent one night here.  Everything was great, especially the continental breakfast!  They would have received wonderful reviews even if that would have been my only contact with them - HOWEVER - upon arriving at my destination I discovered my camera missing.  Thinking back to the last time I'd used it, I realized I must have left it on the back of the trailer as we were securing everything before taking off the next morning.  I told my wife we'd just have to write it off as a lost.  She contacted Holiday Inn anyway, and was told a camera/case had been found in the parking lot.  It was mailed immediately!  We've had dealings with other hotels over other issues and they couldn't be bothered.  It is so refreshing to find honest people hired by a company that has integrity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56854-d223657-r47252844-Quality_Inn_Suites-Weatherford_Texas.html</t>
+  </si>
+  <si>
+    <t>47252844</t>
+  </si>
+  <si>
+    <t>10/19/2009</t>
+  </si>
+  <si>
+    <t>Perfect choice for our family</t>
+  </si>
+  <si>
+    <t>We stayed in a 2 bedroom suite - it was extremely spacious and fit both our cribs very well.  The decor was clean and modern, and our experience went very well.  We will stay here again when we need to visit the area.</t>
   </si>
 </sst>
 </file>
@@ -1141,120 +1405,114 @@
       <c r="A2" t="n">
         <v>14367</v>
       </c>
-      <c r="B2" t="n">
-        <v>174064</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>14367</v>
       </c>
-      <c r="B3" t="n">
-        <v>174065</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1262,54 +1520,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>14367</v>
       </c>
-      <c r="B4" t="n">
-        <v>174066</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
         <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1320,54 +1574,58 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>14367</v>
       </c>
-      <c r="B5" t="n">
-        <v>174067</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
         <v>69</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1380,194 +1638,180 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>14367</v>
       </c>
-      <c r="B6" t="n">
-        <v>174068</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="J6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>82</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>14367</v>
       </c>
-      <c r="B7" t="n">
-        <v>174069</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>86</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>87</v>
       </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
       <c r="O7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>14367</v>
       </c>
-      <c r="B8" t="n">
-        <v>174070</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>93</v>
       </c>
-      <c r="J8" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>97</v>
-      </c>
       <c r="O8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
         <v>3</v>
       </c>
-      <c r="S8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1575,51 +1819,51 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>14367</v>
       </c>
-      <c r="B9" t="n">
-        <v>174071</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>99</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+      <c r="O9" t="s">
+        <v>81</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -1632,177 +1876,173 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>14367</v>
       </c>
-      <c r="B10" t="n">
-        <v>13241</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>14367</v>
       </c>
-      <c r="B11" t="n">
-        <v>174072</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>14367</v>
       </c>
-      <c r="B12" t="n">
-        <v>174073</v>
-      </c>
-      <c r="C12" t="s">
-        <v>119</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>118</v>
-      </c>
-      <c r="O12" t="s">
-        <v>82</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
@@ -1815,54 +2055,50 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>14367</v>
       </c>
-      <c r="B13" t="n">
-        <v>174074</v>
-      </c>
-      <c r="C13" t="s">
-        <v>126</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1876,285 +2112,249 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>14367</v>
       </c>
-      <c r="B14" t="n">
-        <v>174075</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>141</v>
-      </c>
-      <c r="X14" t="s">
-        <v>142</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>14367</v>
       </c>
-      <c r="B15" t="n">
-        <v>174076</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>151</v>
-      </c>
-      <c r="X15" t="s">
-        <v>152</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>14367</v>
       </c>
-      <c r="B16" t="n">
-        <v>7902</v>
-      </c>
-      <c r="C16" t="s">
-        <v>154</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>161</v>
-      </c>
-      <c r="X16" t="s">
-        <v>162</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>14367</v>
       </c>
-      <c r="B17" t="n">
-        <v>174077</v>
-      </c>
-      <c r="C17" t="s">
-        <v>164</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
         <v>3</v>
       </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2162,266 +2362,220 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>14367</v>
       </c>
-      <c r="B18" t="n">
-        <v>174078</v>
-      </c>
-      <c r="C18" t="s">
-        <v>172</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s"/>
       <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>14367</v>
       </c>
-      <c r="B19" t="n">
-        <v>174079</v>
-      </c>
-      <c r="C19" t="s">
-        <v>178</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="N19" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" t="s">
+        <v>65</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>14367</v>
       </c>
-      <c r="B20" t="n">
-        <v>4161</v>
-      </c>
-      <c r="C20" t="s">
-        <v>184</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>14367</v>
       </c>
-      <c r="B21" t="n">
-        <v>174080</v>
-      </c>
-      <c r="C21" t="s">
-        <v>191</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="O21" t="s">
-        <v>82</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
         <v>4</v>
       </c>
@@ -2430,7 +2584,7 @@
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2438,78 +2592,1224 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>14367</v>
       </c>
-      <c r="B22" t="n">
-        <v>174081</v>
-      </c>
-      <c r="C22" t="s">
-        <v>199</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O23" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s">
+        <v>192</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>201</v>
+      </c>
+      <c r="X26" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
         <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>210</v>
+      </c>
+      <c r="X27" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>218</v>
+      </c>
+      <c r="O28" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>219</v>
+      </c>
+      <c r="X28" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>228</v>
+      </c>
+      <c r="X29" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>237</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>238</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>243</v>
+      </c>
+      <c r="J32" t="s">
+        <v>244</v>
+      </c>
+      <c r="K32" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" t="s">
+        <v>246</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>250</v>
+      </c>
+      <c r="J33" t="s">
+        <v>251</v>
+      </c>
+      <c r="K33" t="s">
+        <v>252</v>
+      </c>
+      <c r="L33" t="s">
+        <v>253</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>264</v>
+      </c>
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s">
+        <v>274</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>275</v>
+      </c>
+      <c r="O37" t="s">
+        <v>65</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>281</v>
+      </c>
+      <c r="O38" t="s">
+        <v>65</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>288</v>
+      </c>
+      <c r="O39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>14367</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>290</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>291</v>
+      </c>
+      <c r="J40" t="s">
+        <v>292</v>
+      </c>
+      <c r="K40" t="s">
+        <v>293</v>
+      </c>
+      <c r="L40" t="s">
+        <v>294</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>288</v>
+      </c>
+      <c r="O40" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
